--- a/GATEWAY/A1#111#TIMSPAXX/TIM/TM-Sinfonia/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TIMSPAXX/TIM/TM-Sinfonia/1.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD9646-3022-41D3-A610-08AA8FF372C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E1406-DB27-4DF8-AE03-F83DDF3F0755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4313,9 +4313,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>L’utente viene invitato a contattare i propri referenti informatici per comunicare l’errore e chiederne la correzione. L'operatore corregge l'errore visualizzando i log applicativi ed eventualmente chiede all'utente di validare nuovamente.</t>
-  </si>
-  <si>
     <t>TIMEOUT - Si prega di riprovare più tardi
 L'utente è invitato a riprovare la validazione in un secondo momento. Il processo clinico prosegue poichè il documento viene salvato e risottomesso alla validazione al ripristinarsi del servizio.</t>
   </si>
@@ -4323,7 +4320,10 @@
     <t>Non sono previsti dati strutturati opzionali nella sezione “Quesito diagnostico” ma solo un testo editabile.</t>
   </si>
   <si>
-    <t>L’utente viene invitato a contattare i propri referenti informatici per comunicare l’errore e chiederne la correzione. Un utente con ruolo apposito esegue la correzione ed eventualmente chiede all'utente di validare nuovamente.</t>
+    <t>L’utente viene invitato a contattare i propri referenti informatici per comunicare l’errore e chiederne la correzione. L'operatore corregge l'errore visualizzando i log applicativi ed eventualmente chiede all'utente di validare nuovamente.  In seguito alla risoluzione dell'errore, la validazione va a buon fine e il documento viene inviato a FSE.</t>
+  </si>
+  <si>
+    <t>L’utente viene invitato a contattare i propri referenti informatici per comunicare l’errore e chiederne la correzione. Un utente con ruolo apposito esegue la correzione ed eventualmente chiede all'utente di validare nuovamente.  In seguito alla risoluzione dell'errore, la validazione va a buon fine e il documento viene inviato a FSE.</t>
   </si>
 </sst>
 </file>
@@ -6629,8 +6629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T384"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G161" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J39" workbookViewId="0">
+      <selection activeCell="P163" sqref="P163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -7939,7 +7939,7 @@
         <v>118</v>
       </c>
       <c r="P39" s="44" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="Q39" s="38"/>
       <c r="R39" s="39"/>
@@ -8231,7 +8231,7 @@
         <v>118</v>
       </c>
       <c r="P47" s="48" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="Q47" s="38"/>
       <c r="R47" s="39"/>
@@ -8450,7 +8450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:20" ht="86.4" hidden="1" customHeight="1">
       <c r="A54" s="34">
         <v>47</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="N55" s="39"/>
       <c r="O55" s="38"/>
       <c r="P55" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q55" s="38"/>
       <c r="R55" s="39" t="s">
@@ -8551,7 +8551,7 @@
       <c r="N56" s="38"/>
       <c r="O56" s="38"/>
       <c r="P56" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q56" s="38"/>
       <c r="R56" s="39" t="s">
@@ -8589,7 +8589,7 @@
       <c r="N57" s="38"/>
       <c r="O57" s="38"/>
       <c r="P57" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q57" s="38"/>
       <c r="R57" s="39" t="s">
@@ -8627,7 +8627,7 @@
       <c r="N58" s="38"/>
       <c r="O58" s="38"/>
       <c r="P58" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q58" s="38"/>
       <c r="R58" s="39" t="s">
@@ -8665,7 +8665,7 @@
       <c r="N59" s="38"/>
       <c r="O59" s="38"/>
       <c r="P59" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q59" s="38"/>
       <c r="R59" s="39"/>
@@ -8701,7 +8701,7 @@
       <c r="N60" s="38"/>
       <c r="O60" s="38"/>
       <c r="P60" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q60" s="38"/>
       <c r="R60" s="39"/>
@@ -8737,7 +8737,7 @@
       <c r="N61" s="38"/>
       <c r="O61" s="38"/>
       <c r="P61" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q61" s="38"/>
       <c r="R61" s="39"/>
@@ -8773,7 +8773,7 @@
       <c r="N62" s="38"/>
       <c r="O62" s="38"/>
       <c r="P62" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q62" s="38"/>
       <c r="R62" s="39"/>
@@ -8809,7 +8809,7 @@
       <c r="N63" s="38"/>
       <c r="O63" s="38"/>
       <c r="P63" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q63" s="38"/>
       <c r="R63" s="39"/>
@@ -8845,7 +8845,7 @@
       <c r="N64" s="38"/>
       <c r="O64" s="38"/>
       <c r="P64" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q64" s="38"/>
       <c r="R64" s="39"/>
@@ -8881,7 +8881,7 @@
       <c r="N65" s="38"/>
       <c r="O65" s="38"/>
       <c r="P65" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q65" s="38"/>
       <c r="R65" s="39"/>
@@ -8917,7 +8917,7 @@
       <c r="N66" s="38"/>
       <c r="O66" s="38"/>
       <c r="P66" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q66" s="38"/>
       <c r="R66" s="39"/>
@@ -8953,7 +8953,7 @@
       <c r="N67" s="38"/>
       <c r="O67" s="38"/>
       <c r="P67" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q67" s="38"/>
       <c r="R67" s="39"/>
@@ -8989,7 +8989,7 @@
       <c r="N68" s="38"/>
       <c r="O68" s="38"/>
       <c r="P68" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q68" s="38"/>
       <c r="R68" s="39"/>
@@ -9025,7 +9025,7 @@
       <c r="N69" s="38"/>
       <c r="O69" s="38"/>
       <c r="P69" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q69" s="38"/>
       <c r="R69" s="39"/>
@@ -9061,7 +9061,7 @@
       <c r="N70" s="38"/>
       <c r="O70" s="38"/>
       <c r="P70" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q70" s="38"/>
       <c r="R70" s="39"/>
@@ -9097,7 +9097,7 @@
       <c r="N71" s="38"/>
       <c r="O71" s="38"/>
       <c r="P71" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q71" s="38"/>
       <c r="R71" s="39"/>
@@ -9133,7 +9133,7 @@
       <c r="N72" s="38"/>
       <c r="O72" s="38"/>
       <c r="P72" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q72" s="38"/>
       <c r="R72" s="39"/>
@@ -9169,7 +9169,7 @@
       <c r="N73" s="38"/>
       <c r="O73" s="38"/>
       <c r="P73" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q73" s="38"/>
       <c r="R73" s="39"/>
@@ -9205,7 +9205,7 @@
       <c r="N74" s="38"/>
       <c r="O74" s="38"/>
       <c r="P74" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q74" s="38"/>
       <c r="R74" s="39"/>
@@ -9241,7 +9241,7 @@
       <c r="N75" s="38"/>
       <c r="O75" s="38"/>
       <c r="P75" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q75" s="38"/>
       <c r="R75" s="39"/>
@@ -9277,7 +9277,7 @@
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
       <c r="P76" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q76" s="38"/>
       <c r="R76" s="39"/>
@@ -9313,7 +9313,7 @@
       <c r="N77" s="38"/>
       <c r="O77" s="38"/>
       <c r="P77" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q77" s="38"/>
       <c r="R77" s="39"/>
@@ -9349,7 +9349,7 @@
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
       <c r="P78" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q78" s="38"/>
       <c r="R78" s="39"/>
@@ -9385,7 +9385,7 @@
       <c r="N79" s="38"/>
       <c r="O79" s="38"/>
       <c r="P79" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q79" s="38"/>
       <c r="R79" s="39"/>
@@ -9421,7 +9421,7 @@
       <c r="N80" s="38"/>
       <c r="O80" s="38"/>
       <c r="P80" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q80" s="38"/>
       <c r="R80" s="39"/>
@@ -9457,7 +9457,7 @@
       <c r="N81" s="38"/>
       <c r="O81" s="38"/>
       <c r="P81" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q81" s="38"/>
       <c r="R81" s="39"/>
@@ -9493,7 +9493,7 @@
       <c r="N82" s="38"/>
       <c r="O82" s="38"/>
       <c r="P82" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q82" s="38"/>
       <c r="R82" s="39"/>
@@ -9529,7 +9529,7 @@
       <c r="N83" s="38"/>
       <c r="O83" s="38"/>
       <c r="P83" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q83" s="38"/>
       <c r="R83" s="39"/>
@@ -9565,7 +9565,7 @@
       <c r="N84" s="38"/>
       <c r="O84" s="38"/>
       <c r="P84" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q84" s="38"/>
       <c r="R84" s="39"/>
@@ -9601,7 +9601,7 @@
       <c r="N85" s="38"/>
       <c r="O85" s="38"/>
       <c r="P85" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q85" s="38"/>
       <c r="R85" s="39"/>
@@ -9637,7 +9637,7 @@
       <c r="N86" s="38"/>
       <c r="O86" s="38"/>
       <c r="P86" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q86" s="38"/>
       <c r="R86" s="39"/>
@@ -9673,7 +9673,7 @@
       <c r="N87" s="38"/>
       <c r="O87" s="38"/>
       <c r="P87" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q87" s="38"/>
       <c r="R87" s="39"/>
@@ -9709,7 +9709,7 @@
       <c r="N88" s="38"/>
       <c r="O88" s="38"/>
       <c r="P88" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q88" s="38"/>
       <c r="R88" s="39"/>
@@ -9745,7 +9745,7 @@
       <c r="N89" s="38"/>
       <c r="O89" s="38"/>
       <c r="P89" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q89" s="38"/>
       <c r="R89" s="39"/>
@@ -9781,7 +9781,7 @@
       <c r="N90" s="38"/>
       <c r="O90" s="38"/>
       <c r="P90" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q90" s="38"/>
       <c r="R90" s="39"/>
@@ -9817,7 +9817,7 @@
       <c r="N91" s="38"/>
       <c r="O91" s="38"/>
       <c r="P91" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q91" s="38"/>
       <c r="R91" s="39"/>
@@ -9853,7 +9853,7 @@
       <c r="N92" s="38"/>
       <c r="O92" s="38"/>
       <c r="P92" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q92" s="38"/>
       <c r="R92" s="39"/>
@@ -9889,7 +9889,7 @@
       <c r="N93" s="38"/>
       <c r="O93" s="38"/>
       <c r="P93" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q93" s="38"/>
       <c r="R93" s="39"/>
@@ -9925,7 +9925,7 @@
       <c r="N94" s="38"/>
       <c r="O94" s="38"/>
       <c r="P94" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q94" s="38"/>
       <c r="R94" s="39"/>
@@ -9961,7 +9961,7 @@
       <c r="N95" s="38"/>
       <c r="O95" s="38"/>
       <c r="P95" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q95" s="38"/>
       <c r="R95" s="39"/>
@@ -9997,7 +9997,7 @@
       <c r="N96" s="38"/>
       <c r="O96" s="38"/>
       <c r="P96" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q96" s="38"/>
       <c r="R96" s="39"/>
@@ -10033,7 +10033,7 @@
       <c r="N97" s="38"/>
       <c r="O97" s="38"/>
       <c r="P97" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q97" s="38"/>
       <c r="R97" s="39"/>
@@ -10069,7 +10069,7 @@
       <c r="N98" s="38"/>
       <c r="O98" s="38"/>
       <c r="P98" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q98" s="38"/>
       <c r="R98" s="39"/>
@@ -10105,7 +10105,7 @@
       <c r="N99" s="38"/>
       <c r="O99" s="38"/>
       <c r="P99" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q99" s="38"/>
       <c r="R99" s="39"/>
@@ -10141,7 +10141,7 @@
       <c r="N100" s="38"/>
       <c r="O100" s="38"/>
       <c r="P100" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q100" s="38"/>
       <c r="R100" s="39"/>
@@ -10177,7 +10177,7 @@
       <c r="N101" s="38"/>
       <c r="O101" s="38"/>
       <c r="P101" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q101" s="38"/>
       <c r="R101" s="39"/>
@@ -10213,7 +10213,7 @@
       <c r="N102" s="38"/>
       <c r="O102" s="38"/>
       <c r="P102" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q102" s="38"/>
       <c r="R102" s="39"/>
@@ -10249,7 +10249,7 @@
       <c r="N103" s="38"/>
       <c r="O103" s="38"/>
       <c r="P103" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q103" s="38"/>
       <c r="R103" s="39"/>
@@ -10285,7 +10285,7 @@
       <c r="N104" s="38"/>
       <c r="O104" s="38"/>
       <c r="P104" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q104" s="38"/>
       <c r="R104" s="39"/>
@@ -10321,7 +10321,7 @@
       <c r="N105" s="38"/>
       <c r="O105" s="38"/>
       <c r="P105" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q105" s="38"/>
       <c r="R105" s="39"/>
@@ -10357,7 +10357,7 @@
       <c r="N106" s="38"/>
       <c r="O106" s="38"/>
       <c r="P106" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q106" s="38"/>
       <c r="R106" s="39"/>
@@ -10393,7 +10393,7 @@
       <c r="N107" s="38"/>
       <c r="O107" s="38"/>
       <c r="P107" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q107" s="38"/>
       <c r="R107" s="39"/>
@@ -10429,7 +10429,7 @@
       <c r="N108" s="38"/>
       <c r="O108" s="38"/>
       <c r="P108" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q108" s="38"/>
       <c r="R108" s="39"/>
@@ -10465,7 +10465,7 @@
       <c r="N109" s="38"/>
       <c r="O109" s="38"/>
       <c r="P109" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q109" s="38"/>
       <c r="R109" s="39"/>
@@ -10501,7 +10501,7 @@
       <c r="N110" s="38"/>
       <c r="O110" s="38"/>
       <c r="P110" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q110" s="38"/>
       <c r="R110" s="39"/>
@@ -10537,7 +10537,7 @@
       <c r="N111" s="38"/>
       <c r="O111" s="38"/>
       <c r="P111" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q111" s="38"/>
       <c r="R111" s="39"/>
@@ -10573,7 +10573,7 @@
       <c r="N112" s="38"/>
       <c r="O112" s="38"/>
       <c r="P112" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q112" s="38"/>
       <c r="R112" s="39"/>
@@ -10609,7 +10609,7 @@
       <c r="N113" s="38"/>
       <c r="O113" s="38"/>
       <c r="P113" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q113" s="38"/>
       <c r="R113" s="39"/>
@@ -10645,7 +10645,7 @@
       <c r="N114" s="38"/>
       <c r="O114" s="38"/>
       <c r="P114" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q114" s="38"/>
       <c r="R114" s="39"/>
@@ -10681,7 +10681,7 @@
       <c r="N115" s="38"/>
       <c r="O115" s="38"/>
       <c r="P115" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q115" s="38"/>
       <c r="R115" s="39"/>
@@ -10717,7 +10717,7 @@
       <c r="N116" s="38"/>
       <c r="O116" s="38"/>
       <c r="P116" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q116" s="38"/>
       <c r="R116" s="39"/>
@@ -10753,7 +10753,7 @@
       <c r="N117" s="38"/>
       <c r="O117" s="38"/>
       <c r="P117" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q117" s="38"/>
       <c r="R117" s="39"/>
@@ -10789,7 +10789,7 @@
       <c r="N118" s="38"/>
       <c r="O118" s="38"/>
       <c r="P118" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q118" s="38"/>
       <c r="R118" s="39"/>
@@ -10825,7 +10825,7 @@
       <c r="N119" s="38"/>
       <c r="O119" s="38"/>
       <c r="P119" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q119" s="38"/>
       <c r="R119" s="39"/>
@@ -10861,7 +10861,7 @@
       <c r="N120" s="38"/>
       <c r="O120" s="38"/>
       <c r="P120" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q120" s="38"/>
       <c r="R120" s="39"/>
@@ -10897,7 +10897,7 @@
       <c r="N121" s="38"/>
       <c r="O121" s="38"/>
       <c r="P121" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q121" s="38"/>
       <c r="R121" s="39"/>
@@ -10933,7 +10933,7 @@
       <c r="N122" s="38"/>
       <c r="O122" s="38"/>
       <c r="P122" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q122" s="38"/>
       <c r="R122" s="39"/>
@@ -10969,7 +10969,7 @@
       <c r="N123" s="38"/>
       <c r="O123" s="38"/>
       <c r="P123" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q123" s="38"/>
       <c r="R123" s="39"/>
@@ -11005,7 +11005,7 @@
       <c r="N124" s="38"/>
       <c r="O124" s="38"/>
       <c r="P124" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q124" s="38"/>
       <c r="R124" s="39"/>
@@ -11041,7 +11041,7 @@
       <c r="N125" s="38"/>
       <c r="O125" s="38"/>
       <c r="P125" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q125" s="38"/>
       <c r="R125" s="39"/>
@@ -11077,7 +11077,7 @@
       <c r="N126" s="38"/>
       <c r="O126" s="38"/>
       <c r="P126" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q126" s="38"/>
       <c r="R126" s="39"/>
@@ -11113,7 +11113,7 @@
       <c r="N127" s="38"/>
       <c r="O127" s="38"/>
       <c r="P127" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q127" s="38"/>
       <c r="R127" s="39"/>
@@ -11149,7 +11149,7 @@
       <c r="N128" s="38"/>
       <c r="O128" s="38"/>
       <c r="P128" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q128" s="38"/>
       <c r="R128" s="39"/>
@@ -11185,7 +11185,7 @@
       <c r="N129" s="38"/>
       <c r="O129" s="38"/>
       <c r="P129" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q129" s="38"/>
       <c r="R129" s="39"/>
@@ -11221,7 +11221,7 @@
       <c r="N130" s="38"/>
       <c r="O130" s="38"/>
       <c r="P130" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q130" s="38"/>
       <c r="R130" s="39"/>
@@ -11257,7 +11257,7 @@
       <c r="N131" s="38"/>
       <c r="O131" s="38"/>
       <c r="P131" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q131" s="38"/>
       <c r="R131" s="39"/>
@@ -11293,7 +11293,7 @@
       <c r="N132" s="38"/>
       <c r="O132" s="38"/>
       <c r="P132" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q132" s="38"/>
       <c r="R132" s="39"/>
@@ -11329,7 +11329,7 @@
       <c r="N133" s="38"/>
       <c r="O133" s="38"/>
       <c r="P133" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q133" s="38"/>
       <c r="R133" s="39"/>
@@ -11365,7 +11365,7 @@
       <c r="N134" s="38"/>
       <c r="O134" s="38"/>
       <c r="P134" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q134" s="38"/>
       <c r="R134" s="39"/>
@@ -11401,7 +11401,7 @@
       <c r="N135" s="38"/>
       <c r="O135" s="38"/>
       <c r="P135" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q135" s="38"/>
       <c r="R135" s="39"/>
@@ -11437,7 +11437,7 @@
       <c r="N136" s="38"/>
       <c r="O136" s="38"/>
       <c r="P136" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q136" s="38"/>
       <c r="R136" s="39"/>
@@ -11473,7 +11473,7 @@
       <c r="N137" s="38"/>
       <c r="O137" s="38"/>
       <c r="P137" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q137" s="38"/>
       <c r="R137" s="39"/>
@@ -11509,7 +11509,7 @@
       <c r="N138" s="38"/>
       <c r="O138" s="38"/>
       <c r="P138" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q138" s="38"/>
       <c r="R138" s="39"/>
@@ -11545,7 +11545,7 @@
       <c r="N139" s="38"/>
       <c r="O139" s="38"/>
       <c r="P139" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q139" s="38"/>
       <c r="R139" s="39"/>
@@ -11581,7 +11581,7 @@
       <c r="N140" s="38"/>
       <c r="O140" s="38"/>
       <c r="P140" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q140" s="38"/>
       <c r="R140" s="39"/>
@@ -11617,7 +11617,7 @@
       <c r="N141" s="38"/>
       <c r="O141" s="38"/>
       <c r="P141" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q141" s="38"/>
       <c r="R141" s="39"/>
@@ -11653,7 +11653,7 @@
       <c r="N142" s="38"/>
       <c r="O142" s="38"/>
       <c r="P142" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q142" s="38"/>
       <c r="R142" s="39"/>
@@ -11689,7 +11689,7 @@
       <c r="N143" s="38"/>
       <c r="O143" s="38"/>
       <c r="P143" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q143" s="38"/>
       <c r="R143" s="39"/>
@@ -11725,7 +11725,7 @@
       <c r="N144" s="38"/>
       <c r="O144" s="38"/>
       <c r="P144" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q144" s="38"/>
       <c r="R144" s="39"/>
@@ -11761,7 +11761,7 @@
       <c r="N145" s="38"/>
       <c r="O145" s="38"/>
       <c r="P145" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q145" s="38"/>
       <c r="R145" s="39"/>
@@ -11797,7 +11797,7 @@
       <c r="N146" s="38"/>
       <c r="O146" s="38"/>
       <c r="P146" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q146" s="38"/>
       <c r="R146" s="39"/>
@@ -11833,7 +11833,7 @@
       <c r="N147" s="38"/>
       <c r="O147" s="38"/>
       <c r="P147" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="39"/>
@@ -11869,7 +11869,7 @@
       <c r="N148" s="38"/>
       <c r="O148" s="38"/>
       <c r="P148" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q148" s="38"/>
       <c r="R148" s="39"/>
@@ -11905,7 +11905,7 @@
       <c r="N149" s="38"/>
       <c r="O149" s="38"/>
       <c r="P149" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q149" s="38"/>
       <c r="R149" s="39"/>
@@ -11941,7 +11941,7 @@
       <c r="N150" s="38"/>
       <c r="O150" s="38"/>
       <c r="P150" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q150" s="38"/>
       <c r="R150" s="39"/>
@@ -11977,7 +11977,7 @@
       <c r="N151" s="38"/>
       <c r="O151" s="38"/>
       <c r="P151" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q151" s="38"/>
       <c r="R151" s="39"/>
@@ -12013,7 +12013,7 @@
       <c r="N152" s="38"/>
       <c r="O152" s="38"/>
       <c r="P152" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q152" s="38"/>
       <c r="R152" s="39"/>
@@ -12049,7 +12049,7 @@
       <c r="N153" s="38"/>
       <c r="O153" s="38"/>
       <c r="P153" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q153" s="38"/>
       <c r="R153" s="39"/>
@@ -12912,7 +12912,7 @@
         <v>336</v>
       </c>
       <c r="K175" s="44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L175" s="38"/>
       <c r="M175" s="38"/>
